--- a/BaoCaoTienDo.xlsx
+++ b/BaoCaoTienDo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NewFolder\TLCN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NewFolder\TLCN\TLCN_OnlineMovieTicketBooking\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,13 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
-  <si>
-    <t>TIỂU LUẬN CHUYÊN NGÀNH</t>
-  </si>
-  <si>
-    <t>Thành viên nhóm :</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t xml:space="preserve">Tuần </t>
   </si>
@@ -44,9 +38,6 @@
     <t>Khảo sát hiện trạng</t>
   </si>
   <si>
-    <t>hoàn thành</t>
-  </si>
-  <si>
     <t xml:space="preserve">Vẽ use case </t>
   </si>
   <si>
@@ -57,6 +48,59 @@
   </si>
   <si>
     <t>Huỳnh Trần Phước Hưng</t>
+  </si>
+  <si>
+    <t>BÁO CÁO TIẾN ĐỘ TIỂU LUẬN CHUYÊN NGÀNH</t>
+  </si>
+  <si>
+    <t>Tuần 1</t>
+  </si>
+  <si>
+    <t>Tuần 2</t>
+  </si>
+  <si>
+    <t>Hoàn thành</t>
+  </si>
+  <si>
+    <t>Giảng viên hướng dẫn:</t>
+  </si>
+  <si>
+    <t>ThS. Lê Văn Vinh</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ĐỀ TÀI: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TÌM HIỂU NODEJS, REACTJS VÀ XÂY DỰNG TRANG WEB ĐẶT VÉ XEM PHIM</t>
+    </r>
+  </si>
+  <si>
+    <t>Tuần 3</t>
+  </si>
+  <si>
+    <t>Sửa lại Usecase</t>
+  </si>
+  <si>
+    <t>Vẽ Class Diagram</t>
+  </si>
+  <si>
+    <t>Vẽ Sequence Diagram</t>
+  </si>
+  <si>
+    <t>Thiết kế giao diện</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Sinh viên thực hiện:
+</t>
   </si>
 </sst>
 </file>
@@ -72,13 +116,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,34 +124,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -137,38 +178,87 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -447,133 +537,190 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M14"/>
+  <dimension ref="B1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="28.109375" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" customWidth="1"/>
-    <col min="6" max="6" width="53" customWidth="1"/>
-    <col min="7" max="7" width="26.21875" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="8"/>
+    <col min="2" max="2" width="28.109375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="27.21875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="21.88671875" style="8" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="F1" s="3" t="s">
+    <row r="1" spans="2:13" ht="21" x14ac:dyDescent="0.4">
+      <c r="B1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+    </row>
+    <row r="2" spans="2:13" ht="21" x14ac:dyDescent="0.4">
+      <c r="B2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+    </row>
+    <row r="6" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="B6" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="3" spans="2:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B3" s="9" t="s">
+      <c r="C6" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="E3" s="5" t="s">
+      <c r="D6" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F6" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="2">
+        <v>16110243</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="2">
+        <v>16110102</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B8" s="5"/>
+      <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="11">
-        <v>16110243</v>
-      </c>
-      <c r="E4" s="8">
-        <v>1</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="D8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B9" s="6"/>
+      <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="12" t="s">
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="11">
-        <v>16110102</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="E6" s="8"/>
-      <c r="F6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="E7" s="8"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="E8" s="8"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="E9" s="8">
-        <v>2</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="E10" s="8"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="E11" s="8"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="E12" s="8"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="E13" s="8"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B16" s="5"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="5"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="6"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="E9:E13"/>
+  <mergeCells count="6">
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B15:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/BaoCaoTienDo.xlsx
+++ b/BaoCaoTienDo.xlsx
@@ -65,9 +65,6 @@
     <t>Giảng viên hướng dẫn:</t>
   </si>
   <si>
-    <t>ThS. Lê Văn Vinh</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">ĐỀ TÀI: </t>
     </r>
@@ -101,6 +98,9 @@
     <t xml:space="preserve">
 Sinh viên thực hiện:
 </t>
+  </si>
+  <si>
+    <t>TS. Lê Văn Vinh</t>
   </si>
 </sst>
 </file>
@@ -226,36 +226,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -540,63 +540,63 @@
   <dimension ref="B1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="8"/>
-    <col min="2" max="2" width="28.109375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="27.21875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="21.88671875" style="8" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="8"/>
+    <col min="1" max="1" width="8.88671875" style="4"/>
+    <col min="2" max="2" width="28.109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="27.21875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="21.88671875" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
     </row>
     <row r="2" spans="2:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="B2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
+      <c r="B2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
     </row>
     <row r="6" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="14" t="s">
-        <v>20</v>
+      <c r="F6" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>6</v>
@@ -606,7 +606,7 @@
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -615,7 +615,7 @@
       <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="15"/>
+      <c r="F7" s="11"/>
       <c r="G7" s="2" t="s">
         <v>7</v>
       </c>
@@ -624,23 +624,23 @@
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="5"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="9" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="6"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
@@ -649,32 +649,32 @@
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="14" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B11" s="15"/>
+      <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="5"/>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B12" s="15"/>
+      <c r="C12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="5"/>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B13" s="16"/>
+      <c r="C13" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="6"/>
-      <c r="C13" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="D13" s="2"/>
     </row>
@@ -687,24 +687,24 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="4" t="s">
-        <v>15</v>
+      <c r="B15" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="5"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="5"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="6"/>
+      <c r="B18" s="16"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
@@ -715,12 +715,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B15:B18"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B15:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/BaoCaoTienDo.xlsx
+++ b/BaoCaoTienDo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t xml:space="preserve">Tuần </t>
   </si>
@@ -92,15 +92,15 @@
     <t>Vẽ Sequence Diagram</t>
   </si>
   <si>
-    <t>Thiết kế giao diện</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 Sinh viên thực hiện:
 </t>
   </si>
   <si>
     <t>TS. Lê Văn Vinh</t>
+  </si>
+  <si>
+    <t>Đặc tả Usecase</t>
   </si>
 </sst>
 </file>
@@ -219,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -237,6 +237,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -248,15 +257,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,7 +541,7 @@
   <dimension ref="B1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F6" sqref="F6:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -556,11 +557,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="H1" s="5"/>
@@ -571,11 +572,11 @@
       <c r="M1" s="6"/>
     </row>
     <row r="2" spans="2:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="H2" s="5"/>
@@ -595,8 +596,8 @@
       <c r="D6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>19</v>
+      <c r="F6" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>6</v>
@@ -606,7 +607,7 @@
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -615,7 +616,7 @@
       <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="11"/>
+      <c r="F7" s="14"/>
       <c r="G7" s="2" t="s">
         <v>7</v>
       </c>
@@ -624,7 +625,7 @@
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="15"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
@@ -635,12 +636,12 @@
         <v>12</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="16"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
@@ -649,34 +650,40 @@
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="15"/>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="11"/>
+      <c r="C11" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B12" s="11"/>
+      <c r="C12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="15"/>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B13" s="12"/>
+      <c r="C13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="16"/>
-      <c r="C13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
@@ -687,24 +694,24 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="15"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="15"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="16"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>

--- a/BaoCaoTienDo.xlsx
+++ b/BaoCaoTienDo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t xml:space="preserve">Tuần </t>
   </si>
@@ -44,12 +44,6 @@
     <t>Tạo link github</t>
   </si>
   <si>
-    <t>Nguyễn Anh Tuấn</t>
-  </si>
-  <si>
-    <t>Huỳnh Trần Phước Hưng</t>
-  </si>
-  <si>
     <t>BÁO CÁO TIẾN ĐỘ TIỂU LUẬN CHUYÊN NGÀNH</t>
   </si>
   <si>
@@ -62,7 +56,26 @@
     <t>Hoàn thành</t>
   </si>
   <si>
-    <t>Giảng viên hướng dẫn:</t>
+    <t>Tuần 3</t>
+  </si>
+  <si>
+    <t>Sửa lại Usecase</t>
+  </si>
+  <si>
+    <t>Vẽ Class Diagram</t>
+  </si>
+  <si>
+    <t>Vẽ Sequence Diagram</t>
+  </si>
+  <si>
+    <t>Đặc tả Usecase</t>
+  </si>
+  <si>
+    <t>Giáo Viên hướng dẫn: TS. Lê Văn Vinh</t>
+  </si>
+  <si>
+    <t>Sinh viên thực hiện: Huỳnh Trần Phước Hưng 16110102
+                                     Nguyễn Anh Tuấn              16110243</t>
   </si>
   <si>
     <r>
@@ -70,7 +83,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="15"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -79,35 +92,12 @@
       <t>TÌM HIỂU NODEJS, REACTJS VÀ XÂY DỰNG TRANG WEB ĐẶT VÉ XEM PHIM</t>
     </r>
   </si>
-  <si>
-    <t>Tuần 3</t>
-  </si>
-  <si>
-    <t>Sửa lại Usecase</t>
-  </si>
-  <si>
-    <t>Vẽ Class Diagram</t>
-  </si>
-  <si>
-    <t>Vẽ Sequence Diagram</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Sinh viên thực hiện:
-</t>
-  </si>
-  <si>
-    <t>TS. Lê Văn Vinh</t>
-  </si>
-  <si>
-    <t>Đặc tả Usecase</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,13 +114,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="16"/>
       <color theme="1"/>
@@ -142,6 +125,34 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -219,45 +230,49 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -538,196 +553,233 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M19"/>
+  <dimension ref="B1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:F7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="4"/>
-    <col min="2" max="2" width="28.109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="27.21875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="21.88671875" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="8.88671875" style="3"/>
+    <col min="2" max="2" width="28.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="27.21875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="33" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="21.88671875" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+    </row>
+    <row r="2" spans="2:13" ht="21" x14ac:dyDescent="0.4">
+      <c r="B2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="2:13" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="B3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="B7" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="2:13" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="B8" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="2:13" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="B9" s="17"/>
+      <c r="C9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="2:13" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="B10" s="17"/>
+      <c r="C10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B11" s="18"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="2:13" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="B12" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-    </row>
-    <row r="2" spans="2:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="B2" s="15" t="s">
+      <c r="C12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="2:13" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="B13" s="17"/>
+      <c r="C13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="2:13" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="B14" s="17"/>
+      <c r="C14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="2:13" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="B15" s="18"/>
+      <c r="C15" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-    </row>
-    <row r="6" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="2">
-        <v>16110243</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="10" t="s">
+      <c r="D15" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="2">
-        <v>16110102</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="11"/>
-      <c r="C8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="12"/>
-      <c r="C9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="10" t="s">
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="2:13" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="B16" s="19"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="2:4" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="B17" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="11"/>
-      <c r="C11" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="11"/>
-      <c r="C12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="12"/>
-      <c r="C13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="3"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="11"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="11"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="12"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="2:4" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="B18" s="17"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="2:4" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="B19" s="17"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="2:4" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="B20" s="18"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="2:4" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="F6:F7"/>
+  <mergeCells count="7">
+    <mergeCell ref="B17:B20"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
